--- a/simulations/cleaned_inclusion_exclusion/van_de_Valk_2021 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/van_de_Valk_2021 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,13 +713,13 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.3483146067415731</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="D3">
-        <v>0.6404494382022472</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="E3">
-        <v>0.898876404494382</v>
+        <v>0.9101123595505618</v>
       </c>
       <c r="F3">
         <v>0.9887640449438202</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.3724137931034483</v>
+        <v>0.3889655172413793</v>
       </c>
       <c r="I3">
-        <v>0.1774079570348385</v>
+        <v>0.1690339905307045</v>
       </c>
       <c r="J3">
-        <v>0.247191011235955</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="K3">
-        <v>157.8314606741573</v>
+        <v>152.5056179775281</v>
       </c>
       <c r="L3">
         <v>8</v>
@@ -755,34 +755,34 @@
         <v>80</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S3">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="T3">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="U3">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="V3">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="W3">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="X3">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="Y3">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="Z3">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="AA3">
         <v>81</v>
@@ -800,19 +800,19 @@
         <v>9</v>
       </c>
       <c r="AF3">
-        <v>0.97956</v>
+        <v>0.988994</v>
       </c>
       <c r="AG3">
-        <v>0.955975</v>
+        <v>0.962264</v>
       </c>
       <c r="AH3">
-        <v>0.886792</v>
+        <v>0.899371</v>
       </c>
       <c r="AI3">
-        <v>0.762579</v>
+        <v>0.746855</v>
       </c>
       <c r="AJ3">
-        <v>0.558176</v>
+        <v>0.578616</v>
       </c>
     </row>
   </sheetData>
